--- a/data/output/FV2504_FV2410/UTILMD/55194.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55194.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="267">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="267">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -943,6 +943,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U109" totalsRowShown="0">
+  <autoFilter ref="A1:U109"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1232,7 +1262,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6214,5 +6247,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55194.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55194.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="374">
   <si>
     <t>#</t>
   </si>
@@ -4963,44 +4963,42 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M70" s="5" t="s">
+      <c r="K70" s="2"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V70" s="5"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5898,9 +5896,7 @@
         <v>200</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>37</v>
       </c>
@@ -6195,46 +6191,44 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K93" s="5" t="s">
+      <c r="K93" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M93" s="5" t="s">
+      <c r="L93" s="4"/>
+      <c r="M93" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V93" s="5" t="s">
+      <c r="V93" s="2" t="s">
         <v>221</v>
       </c>
     </row>

--- a/data/output/FV2504_FV2410/UTILMD/55194.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55194.xlsx
@@ -1248,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1271,6 +1271,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1279,6 +1282,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1721,7 +1727,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2089,7 +2095,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2237,7 +2243,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2443,7 +2449,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2757,7 +2763,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2939,24 +2945,24 @@
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M26" s="5"/>
@@ -2974,33 +2980,33 @@
       <c r="A27" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M27" s="5"/>
@@ -3018,33 +3024,33 @@
       <c r="A28" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M28" s="5"/>
@@ -3062,31 +3068,31 @@
       <c r="A29" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M29" s="5"/>
@@ -3104,31 +3110,31 @@
       <c r="A30" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M30" s="5"/>
@@ -3146,31 +3152,31 @@
       <c r="A31" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="9"/>
+      <c r="L31" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M31" s="5"/>
@@ -3188,31 +3194,31 @@
       <c r="A32" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M32" s="5"/>
@@ -3240,29 +3246,29 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="V33" s="11"/>
+      <c r="V33" s="13"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3278,33 +3284,33 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11" t="s">
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="U34" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="13" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3322,35 +3328,35 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="U35" s="11" t="s">
+      <c r="U35" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="13"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -3366,33 +3372,33 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11" t="s">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3408,33 +3414,33 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11" t="s">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="V37" s="11"/>
+      <c r="V37" s="13"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
@@ -3450,33 +3456,33 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11" t="s">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="V38" s="11"/>
+      <c r="V38" s="13"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3492,33 +3498,33 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11" t="s">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="V39" s="11"/>
+      <c r="V39" s="13"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="2" t="s">
@@ -3541,7 +3547,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3855,7 +3861,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4037,26 +4043,26 @@
       <c r="B50" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M50" s="5"/>
@@ -4074,33 +4080,33 @@
       <c r="A51" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M51" s="5"/>
@@ -4118,33 +4124,33 @@
       <c r="A52" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M52" s="5"/>
@@ -4172,29 +4178,29 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11" t="s">
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11" t="s">
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -4210,35 +4216,35 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="V54" s="11"/>
+      <c r="U54" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4254,33 +4260,33 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11" t="s">
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="2" t="s">
@@ -4303,7 +4309,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4505,7 +4511,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4709,7 +4715,7 @@
         <v>218</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4850,29 +4856,29 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11" t="s">
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11" t="s">
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="V67" s="11"/>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -4888,35 +4894,35 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q68" s="11" t="s">
+      <c r="Q68" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R68" s="11" t="s">
+      <c r="R68" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="U68" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="V68" s="11"/>
+      <c r="U68" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -4932,33 +4938,33 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="U69" s="11" t="s">
+      <c r="U69" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="V69" s="11" t="s">
+      <c r="V69" s="13" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4983,7 +4989,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5109,52 +5115,52 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="O73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P73" s="5"/>
+      <c r="P73" s="2"/>
       <c r="Q73" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V73" s="5"/>
+      <c r="V73" s="2"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -5561,52 +5567,52 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M81" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="O81" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P81" s="5"/>
+      <c r="P81" s="2"/>
       <c r="Q81" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5" t="s">
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V81" s="5"/>
+      <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -5725,46 +5731,46 @@
       <c r="V83" s="5"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
       <c r="J84" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="K84" s="5" t="s">
+      <c r="K84" s="2" t="s">
         <v>219</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
       <c r="U84" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="V84" s="5" t="s">
+      <c r="V84" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6023,52 +6029,52 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K90" s="5"/>
+      <c r="K90" s="2"/>
       <c r="L90" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O90" s="5" t="s">
+      <c r="O90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P90" s="5"/>
+      <c r="P90" s="2"/>
       <c r="Q90" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V90" s="5"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -6213,7 +6219,7 @@
         <v>221</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6625,52 +6631,52 @@
       <c r="V100" s="5"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5" t="s">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K101" s="5"/>
+      <c r="K101" s="2"/>
       <c r="L101" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="M101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N101" s="5" t="s">
+      <c r="N101" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O101" s="5" t="s">
+      <c r="O101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P101" s="5"/>
+      <c r="P101" s="2"/>
       <c r="Q101" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5" t="s">
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V101" s="5"/>
+      <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -6799,22 +6805,22 @@
       <c r="B104" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8" t="s">
+      <c r="C104" s="9"/>
+      <c r="D104" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
+      <c r="E104" s="9"/>
+      <c r="F104" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8" t="s">
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M104" s="5"/>
@@ -6832,29 +6838,29 @@
       <c r="A105" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="9"/>
+      <c r="D105" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J105" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9" t="s">
+      <c r="J105" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M105" s="5"/>
@@ -6872,29 +6878,29 @@
       <c r="A106" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8" t="s">
+      <c r="C106" s="9"/>
+      <c r="D106" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8" t="s">
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J106" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9" t="s">
+      <c r="J106" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="10" t="s">
         <v>225</v>
       </c>
       <c r="M106" s="5"/>
@@ -6922,27 +6928,27 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11" t="s">
+      <c r="N107" s="13"/>
+      <c r="O107" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P107" s="11"/>
-      <c r="Q107" s="11" t="s">
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11"/>
-      <c r="U107" s="11" t="s">
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="V107" s="11"/>
+      <c r="V107" s="13"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -6958,31 +6964,31 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11" t="s">
+      <c r="N108" s="13"/>
+      <c r="O108" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P108" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q108" s="11" t="s">
+      <c r="Q108" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11" t="s">
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U108" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="V108" s="11"/>
+      <c r="U108" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V108" s="13"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -6998,31 +7004,31 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11" t="s">
+      <c r="N109" s="13"/>
+      <c r="O109" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q109" s="11" t="s">
+      <c r="Q109" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11" t="s">
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="U109" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="V109" s="11"/>
+      <c r="U109" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V109" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
